--- a/CU03 Administracion de Coordinadores.xlsx
+++ b/CU03 Administracion de Coordinadores.xlsx
@@ -7,22 +7,19 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin Sup" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin Coord" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Revisor</t>
   </si>
   <si>
     <t>Versión</t>
-  </si>
-  <si>
-    <t>0001</t>
   </si>
   <si>
     <t>Estado</t>
@@ -114,7 +111,16 @@
 </t>
   </si>
   <si>
-    <t>El usuario debe pertenecer al Tipo de usuario "Coordinador".</t>
+    <t>El actor debe estar logueado, debe pertenecer al Tipo de usuario "Coordinador".</t>
+  </si>
+  <si>
+    <t>El actor hace click en el botón "Salir".</t>
+  </si>
+  <si>
+    <t>El sistema cierra el formulario.</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -132,6 +138,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -213,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -255,9 +262,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -289,6 +293,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +637,7 @@
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5">
         <v>42897</v>
@@ -619,10 +647,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="6"/>
@@ -630,10 +658,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="6"/>
@@ -650,102 +678,102 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="25"/>
+      <c r="B12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="B13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -754,27 +782,49 @@
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>3</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>4</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13"/>
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CU03 Administracion de Coordinadores.xlsx
+++ b/CU03 Administracion de Coordinadores.xlsx
@@ -70,57 +70,56 @@
     <t>Coordinador</t>
   </si>
   <si>
+    <t>El actor debe estar logueado, debe pertenecer al Tipo de usuario "Coordinador".</t>
+  </si>
+  <si>
+    <t>El actor hace click en el botón "Salir".</t>
+  </si>
+  <si>
+    <t>El sistema cierra el formulario.</t>
+  </si>
+  <si>
     <t>Opcionalmente:
-a - El actor hace clic en el botón "Ver" en algún registro del listado de Supervisores.
-b - El actor hace clic en el botón "Ver" en algún registro del listado de Telemarketers.
-c - El actor hace clic en el botón "Ver" en algún registro del listado de oportunidades.
-d - El actor hace clic en el botón "Ver" en algún registro del listado de campañas.
-e - El actor hace clic en el botón "Ver" en algún registro del listado de Ventas</t>
-  </si>
-  <si>
-    <t>Ver Supervisor, paso 2.a</t>
-  </si>
-  <si>
-    <t>Ver Telemarketer, paso 2.b</t>
-  </si>
-  <si>
-    <t>Ver Oportunidad, paso 2.c</t>
-  </si>
-  <si>
-    <t>Ver Campaña, paso 2.d</t>
-  </si>
-  <si>
-    <t>Ver Venta, paso 2.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema muestra la pantalla de Administración de Coordinadores la cual presenta:
+a - El actor hace clic en el botón "Ver" en algún registro del listado de Telemarketers.
+b - El actor hace clic en el botón "Ver" en algún registro del listado de Oportunidades.
+c - El actor hace clic en el botón "Ver" en algún registro del listado de Campañas.
+d - El actor hace clic en el botón "Ver" en algún registro del listado de Ventas.
+e - El actor hace clic en el botón "Ver" en algún registro del listado de Supervisores</t>
+  </si>
+  <si>
+    <t>El sistema muestra la pantalla de Administración de Coordinadores la cual presenta:
 *Listado de telemarketers asignados al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.
-*Listado de supervisores asignados al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.
 *Listado de oportunidades asignadas al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.
 *Listado de campañas asignadas al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.
 *Listado de ventas asignadas al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.
-</t>
+*Listado de supervisores asignados al mismo grupo que el coordinador, con botón "Ver" en cada uno de los registros.</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
   <si>
     <t xml:space="preserve">El actor accede al formulario Administración de Coordinadores donde puede:
-*Ver listado y detalle de los usuarios de tipo "Supervisor" asignados al mismo grupo que el actor
 *Ver listado y detalle de los usuarios de tipo "Telemarketer" asignados al mismo grupo que el actor.
 *Ver listado y detalle de las oportunidades asignadas a los telemarketers de cada supervisor correspondiente al actor.
 *Ver listado y detalle de las campañas asignadas al mismo grupo que el actor.
 *Ver listado y detalle de las ventas realizadas por los telemarketers asignados al mismo grupo que el actor.
+*Ver listado y detalle de los usuarios de tipo "Supervisor" asignados al mismo grupo que el actor
 </t>
   </si>
   <si>
-    <t>El actor debe estar logueado, debe pertenecer al Tipo de usuario "Coordinador".</t>
-  </si>
-  <si>
-    <t>El actor hace click en el botón "Salir".</t>
-  </si>
-  <si>
-    <t>El sistema cierra el formulario.</t>
-  </si>
-  <si>
-    <t>0002</t>
+    <t>Ver Telemarketer, paso 2.a</t>
+  </si>
+  <si>
+    <t>Ver Oportunidad, paso 2.b</t>
+  </si>
+  <si>
+    <t>Ver Campaña, paso 2.c</t>
+  </si>
+  <si>
+    <t>Ver Venta, paso 2.d</t>
+  </si>
+  <si>
+    <t>Ver Supervisor, paso 2.e</t>
   </si>
 </sst>
 </file>
@@ -247,9 +246,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -301,13 +297,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -316,7 +315,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +648,10 @@
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
@@ -660,10 +659,10 @@
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
@@ -671,136 +670,136 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="B5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13"/>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="153" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+      <c r="B18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" s="27" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="B19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>4</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" s="32"/>
     </row>
@@ -808,17 +807,17 @@
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
